--- a/biology/Zoologie/Corixoidea/Corixoidea.xlsx
+++ b/biology/Zoologie/Corixoidea/Corixoidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Corixoidea sont une super-famille d'insectes hémiptères du sous-ordre des hétéroptères (punaises) aquatiques.
 </t>
@@ -511,20 +523,91 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les Corixoidea sont reconnus comme le groupe-frère des Tripartita au sein d'un clade qui regroupe tous les Nepomorpha à l'exception des Nepoidea[2]. La monophylie de cette super-famille a été confirmée par plusieurs études[2]. Selon les auteurs, cette sous-famille contient une à trois familles, selon le statut conféré à deux anciennes sous-familles des Corixidae, les Diaprepocorinae et les Micronectinae, qu'elles soient considérées ou non comme des familles à part entière.
-L'ensemble représente environ 35 genres et plus de 600 espèces[3]. 
-Liste des familles
-Selon ITIS      (12 mai 2019)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Corixoidea sont reconnus comme le groupe-frère des Tripartita au sein d'un clade qui regroupe tous les Nepomorpha à l'exception des Nepoidea. La monophylie de cette super-famille a été confirmée par plusieurs études. Selon les auteurs, cette sous-famille contient une à trois familles, selon le statut conféré à deux anciennes sous-familles des Corixidae, les Diaprepocorinae et les Micronectinae, qu'elles soient considérées ou non comme des familles à part entière.
+L'ensemble représente environ 35 genres et plus de 600 espèces. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Corixoidea</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corixoidea</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des familles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (12 mai 2019) :
 famille des Corixidae Leach, 1815
 famille des Micronectidae Jaczewski, 1924
-Selon Ye et al.[2], il faut ajouter également une famille issue d'une sous-famille des Corixidae:
+Selon Ye et al., il faut ajouter également une famille issue d'une sous-famille des Corixidae:
 famille des Diaprepocoridae Lundblad, 1928
-Selon BioLib                    (2 avril 2022)[4], il faut mentionner également une famille fossile : 
-famille des †Shurabellidae Popov, 1971
-Position phylogénétique
-La position des Corixoidea au sein des Nepomorpha serait, selon Ye et al., la suivante[2]: 
+Selon BioLib                    (2 avril 2022), il faut mentionner également une famille fossile : 
+famille des †Shurabellidae Popov, 1971</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Corixoidea</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corixoidea</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Position phylogénétique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La position des Corixoidea au sein des Nepomorpha serait, selon Ye et al., la suivante: 
 Nepomorpha
 Nepoidea
 Autres Nepomorpha
